--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vcan-Egfr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vcan-Egfr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.54662210472061</v>
+        <v>7.172092999999999</v>
       </c>
       <c r="H2">
-        <v>6.54662210472061</v>
+        <v>21.516279</v>
       </c>
       <c r="I2">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805701</v>
       </c>
       <c r="J2">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805699</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N2">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q2">
-        <v>10.80513347306751</v>
+        <v>14.95610897476</v>
       </c>
       <c r="R2">
-        <v>10.80513347306751</v>
+        <v>134.60498077284</v>
       </c>
       <c r="S2">
-        <v>0.000946168911286557</v>
+        <v>0.001290318074437043</v>
       </c>
       <c r="T2">
-        <v>0.000946168911286557</v>
+        <v>0.001290318074437042</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.54662210472061</v>
+        <v>7.172092999999999</v>
       </c>
       <c r="H3">
-        <v>6.54662210472061</v>
+        <v>21.516279</v>
       </c>
       <c r="I3">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805701</v>
       </c>
       <c r="J3">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805699</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N3">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q3">
-        <v>666.9950234016155</v>
+        <v>730.8231732860889</v>
       </c>
       <c r="R3">
-        <v>666.9950234016155</v>
+        <v>6577.4085595748</v>
       </c>
       <c r="S3">
-        <v>0.05840649323754218</v>
+        <v>0.06305078087488378</v>
       </c>
       <c r="T3">
-        <v>0.05840649323754218</v>
+        <v>0.06305078087488376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.54662210472061</v>
+        <v>7.172092999999999</v>
       </c>
       <c r="H4">
-        <v>6.54662210472061</v>
+        <v>21.516279</v>
       </c>
       <c r="I4">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805701</v>
       </c>
       <c r="J4">
-        <v>0.06781118160145715</v>
+        <v>0.07357387076805699</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q4">
-        <v>96.59525966237105</v>
+        <v>107.017288369271</v>
       </c>
       <c r="R4">
-        <v>96.59525966237105</v>
+        <v>963.155595323439</v>
       </c>
       <c r="S4">
-        <v>0.00845851945262841</v>
+        <v>0.009232771818736187</v>
       </c>
       <c r="T4">
-        <v>0.00845851945262841</v>
+        <v>0.009232771818736182</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.4392298282187</v>
+        <v>89.72947699999999</v>
       </c>
       <c r="H5">
-        <v>89.4392298282187</v>
+        <v>269.188431</v>
       </c>
       <c r="I5">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="J5">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N5">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q5">
-        <v>147.6185429009892</v>
+        <v>187.11467297764</v>
       </c>
       <c r="R5">
-        <v>147.6185429009892</v>
+        <v>1684.03205679876</v>
       </c>
       <c r="S5">
-        <v>0.0129264554084851</v>
+        <v>0.01614306534827182</v>
       </c>
       <c r="T5">
-        <v>0.0129264554084851</v>
+        <v>0.01614306534827182</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>89.4392298282187</v>
+        <v>89.72947699999999</v>
       </c>
       <c r="H6">
-        <v>89.4392298282187</v>
+        <v>269.188431</v>
       </c>
       <c r="I6">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="J6">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N6">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q6">
-        <v>9112.412514123742</v>
+        <v>9143.269770545519</v>
       </c>
       <c r="R6">
-        <v>9112.412514123742</v>
+        <v>82289.42793490969</v>
       </c>
       <c r="S6">
-        <v>0.7979430748516947</v>
+        <v>0.7888232336564687</v>
       </c>
       <c r="T6">
-        <v>0.7979430748516947</v>
+        <v>0.7888232336564686</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>89.4392298282187</v>
+        <v>89.72947699999999</v>
       </c>
       <c r="H7">
-        <v>89.4392298282187</v>
+        <v>269.188431</v>
       </c>
       <c r="I7">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="J7">
-        <v>0.9264288909852443</v>
+        <v>0.9204767624852804</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O7">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P7">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q7">
-        <v>1319.673793761458</v>
+        <v>1338.884662445519</v>
       </c>
       <c r="R7">
-        <v>1319.673793761458</v>
+        <v>12049.96196200967</v>
       </c>
       <c r="S7">
-        <v>0.1155593607250646</v>
+        <v>0.11551046348054</v>
       </c>
       <c r="T7">
-        <v>0.1155593607250646</v>
+        <v>0.11551046348054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.556074488527655</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H8">
-        <v>0.556074488527655</v>
+        <v>1.73986</v>
       </c>
       <c r="I8">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662454</v>
       </c>
       <c r="J8">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662453</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N8">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O8">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P8">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q8">
-        <v>0.9177953108331249</v>
+        <v>1.209388285066667</v>
       </c>
       <c r="R8">
-        <v>0.9177953108331249</v>
+        <v>10.8844945656</v>
       </c>
       <c r="S8">
-        <v>8.036822425187079E-05</v>
+        <v>0.0001043383386593023</v>
       </c>
       <c r="T8">
-        <v>8.036822425187079E-05</v>
+        <v>0.0001043383386593022</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.556074488527655</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H9">
-        <v>0.556074488527655</v>
+        <v>1.73986</v>
       </c>
       <c r="I9">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662454</v>
       </c>
       <c r="J9">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N9">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P9">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q9">
-        <v>56.65500628501199</v>
+        <v>59.09618509192668</v>
       </c>
       <c r="R9">
-        <v>56.65500628501199</v>
+        <v>531.8656658273401</v>
       </c>
       <c r="S9">
-        <v>0.004961086852766536</v>
+        <v>0.005098443444285851</v>
       </c>
       <c r="T9">
-        <v>0.004961086852766536</v>
+        <v>0.005098443444285849</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.556074488527655</v>
+        <v>0.5799533333333334</v>
       </c>
       <c r="H10">
-        <v>0.556074488527655</v>
+        <v>1.73986</v>
       </c>
       <c r="I10">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662454</v>
       </c>
       <c r="J10">
-        <v>0.005759927413298506</v>
+        <v>0.005949366746662453</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O10">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P10">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q10">
-        <v>8.204866380208051</v>
+        <v>8.653684930473336</v>
       </c>
       <c r="R10">
-        <v>8.204866380208051</v>
+        <v>77.88316437426002</v>
       </c>
       <c r="S10">
-        <v>0.0007184723362801001</v>
+        <v>0.0007465849637173019</v>
       </c>
       <c r="T10">
-        <v>0.0007184723362801001</v>
+        <v>0.0007465849637173016</v>
       </c>
     </row>
   </sheetData>
